--- a/biology/Zoologie/Épervier_à_collier_roux/Épervier_à_collier_roux.xlsx
+++ b/biology/Zoologie/Épervier_à_collier_roux/Épervier_à_collier_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter cirrocephalus
 L’Épervier à collier roux (Accipiter cirrocephalus) est une espèce de rapace de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur du corps est de 30 à 40 cm et l’envergure  de 55 à 80 cm. Les femelles, qui pèsent 240 g à l’âge adulte, sont nettement plus grandes que les mâles qui pèsent 125 g.
 La partie supérieure est gris avec un collier chatain, les parties inférieures sont essentiellement rousses, finement barrées de blanc. Il ressemble à l’Autour australien mais en plus petit. Son vol est rapide et souple.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très répandu à travers l'Australie et la Nouvelle-Guinée à l'exception des zones désertiques. On le trouve dans les forêts et les terres boisées.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement de petits oiseaux capturés en vol, parfois d'insectes.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans des arbres sur une plate-forme de bâtonnets et de brindilles. La couvée est habituellement de 3 ou 4 œufs. La période d'incubation est d'environ 35 jours, avec l'envol des poussins environ 24 à 33 jours après l'éclosion.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, il en existe 3 sous-espèces :
 Accipiter cirrocephalus cirrocephalus (Vieillot) 1817 
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89pervier_%C3%A0_collier_roux</t>
+          <t>Épervier_à_collier_roux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Marchant, S.; &amp; Higgins, P.J. (Eds). (1993). Handbook of Australian, New Zealand and Antarctic Birds. Vol,2: Raptors to Lapwings. Oxford University Press: Melbourne.  (ISBN 0-19-553069-1)</t>
         </is>
